--- a/TestDataAndResults/TestData/SophieAutomation - Copy.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation - Copy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565DD9CD-F11B-4D1E-A993-AAD15162EA2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A4EBBE-D910-4B84-AC44-59E03D257E40}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="203">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -132,508 +132,514 @@
     <t>Validating the downloaded csv</t>
   </si>
   <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>lnkLaunchWebInterface</t>
+  </si>
+  <si>
+    <t>lnkEngineDesignerPortal</t>
+  </si>
+  <si>
+    <t>TS_15</t>
+  </si>
+  <si>
+    <t>TS_16</t>
+  </si>
+  <si>
+    <t>lnkDdefineBrain</t>
+  </si>
+  <si>
+    <t>btnCreatenewVersion</t>
+  </si>
+  <si>
+    <t>txtShortDesc</t>
+  </si>
+  <si>
+    <t>ActionKeyword</t>
+  </si>
+  <si>
+    <t>openURL</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>enterText</t>
+  </si>
+  <si>
+    <t>txtVersionNotes</t>
+  </si>
+  <si>
+    <t>imgBtnNext</t>
+  </si>
+  <si>
+    <t>imgGeneratebtn</t>
+  </si>
+  <si>
+    <t>Click on Submit notes</t>
+  </si>
+  <si>
+    <t>btnSubmitVersionNotes</t>
+  </si>
+  <si>
+    <t>btnRunEngine</t>
+  </si>
+  <si>
+    <t>TS_17</t>
+  </si>
+  <si>
+    <t>TS_18</t>
+  </si>
+  <si>
+    <t>TS_19</t>
+  </si>
+  <si>
+    <t>Putting some wait</t>
+  </si>
+  <si>
+    <t>sleepTime</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>gettingHandle</t>
+  </si>
+  <si>
+    <t>TS_20</t>
+  </si>
+  <si>
+    <t>TS_21</t>
+  </si>
+  <si>
+    <t>TS_22</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Created as part of automation</t>
+  </si>
+  <si>
+    <t>Click on generate engine</t>
+  </si>
+  <si>
+    <t>Verify the status pause</t>
+  </si>
+  <si>
+    <t>eleEngineStatus</t>
+  </si>
+  <si>
+    <t>elementPropertyCheck</t>
+  </si>
+  <si>
+    <t>Paused</t>
+  </si>
+  <si>
+    <t>Click the link Click to Check data</t>
+  </si>
+  <si>
+    <t>lnkClickToCheckData</t>
+  </si>
+  <si>
+    <t>Click the link Click to download the csv</t>
+  </si>
+  <si>
+    <t>lnkDownloadCSV</t>
+  </si>
+  <si>
+    <t>Validate the downloaded CSV</t>
+  </si>
+  <si>
+    <t>ValidateBatchDecisionOutputCSV</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>ColumnToBeValidated</t>
+  </si>
+  <si>
+    <t>ValueToBeChecked</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>channel_name</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resume the run </t>
+  </si>
+  <si>
+    <t>Closing the browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>TS_23</t>
+  </si>
+  <si>
+    <t>TS_24</t>
+  </si>
+  <si>
+    <t>TS_25</t>
+  </si>
+  <si>
+    <t>TS_26</t>
+  </si>
+  <si>
+    <t>TS_27</t>
+  </si>
+  <si>
+    <t>TS_28</t>
+  </si>
+  <si>
+    <t>TS_29</t>
+  </si>
+  <si>
+    <t>TS_30</t>
+  </si>
+  <si>
+    <t>TS_31</t>
+  </si>
+  <si>
+    <t>TS_32</t>
+  </si>
+  <si>
+    <t>TS_33</t>
+  </si>
+  <si>
+    <t>Ensure the CSV version created without Email, and with IB has ib , but no Email</t>
+  </si>
+  <si>
+    <t>Unselect DM</t>
+  </si>
+  <si>
+    <t>Select Email</t>
+  </si>
+  <si>
+    <t>Click Email channel</t>
+  </si>
+  <si>
+    <t>Click Next</t>
+  </si>
+  <si>
+    <t>Click on New offer</t>
+  </si>
+  <si>
+    <t>chkDirectMail</t>
+  </si>
+  <si>
+    <t>chkEmail</t>
+  </si>
+  <si>
+    <t>btnEmailChannel</t>
+  </si>
+  <si>
+    <t>btnNewOffer</t>
+  </si>
+  <si>
+    <t>enter the name</t>
+  </si>
+  <si>
+    <t>txtOfferLabel</t>
+  </si>
+  <si>
+    <t>txtOfferName</t>
+  </si>
+  <si>
+    <t>Entert the start date</t>
+  </si>
+  <si>
+    <t>Entert the End date</t>
+  </si>
+  <si>
+    <t>txtOfferStartDate</t>
+  </si>
+  <si>
+    <t>txtOfferEndDate</t>
+  </si>
+  <si>
+    <t>Click next&gt;&gt;</t>
+  </si>
+  <si>
+    <t>SelectListItem</t>
+  </si>
+  <si>
+    <t>Click on next</t>
+  </si>
+  <si>
+    <t>btnNext</t>
+  </si>
+  <si>
+    <t>TS_34</t>
+  </si>
+  <si>
+    <t>TS_35</t>
+  </si>
+  <si>
+    <t>btnResumeRun</t>
+  </si>
+  <si>
+    <t>ToggleButtonClick</t>
+  </si>
+  <si>
+    <t>Choose sms tab</t>
+  </si>
+  <si>
+    <t>Select sms template</t>
+  </si>
+  <si>
+    <t>Choose oBCC  tab</t>
+  </si>
+  <si>
+    <t>TS_36</t>
+  </si>
+  <si>
+    <t>TS_38</t>
+  </si>
+  <si>
+    <t>Sophie_Auto_328</t>
+  </si>
+  <si>
+    <t>TestCaseID should be matching with the TestCaseID in the 'RegressionCases'</t>
+  </si>
+  <si>
+    <t>Sophie_NoEmail_ButIB_329</t>
+  </si>
+  <si>
+    <t>Click submit</t>
+  </si>
+  <si>
+    <t>Choose obcc template</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>wait to download</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>chkSMS</t>
+  </si>
+  <si>
+    <t>Select SMS</t>
+  </si>
+  <si>
+    <t>Rollback to the baseline version</t>
+  </si>
+  <si>
+    <t>rollBackToBaselineVersion</t>
+  </si>
+  <si>
+    <t>7.143.113..NA.01-01-01</t>
+  </si>
+  <si>
+    <t>Rollback to baseline version</t>
+  </si>
+  <si>
+    <t>wait time</t>
+  </si>
+  <si>
+    <t>OfferRegr4819</t>
+  </si>
+  <si>
+    <t>Deselect Microsite</t>
+  </si>
+  <si>
+    <t>chkMicrosite</t>
+  </si>
+  <si>
+    <t>checkboxSelect</t>
+  </si>
+  <si>
+    <t>checkboxUncheck</t>
+  </si>
+  <si>
+    <t>uncheck microsite</t>
+  </si>
+  <si>
+    <t>tabEmail</t>
+  </si>
+  <si>
+    <t>ddnEmailTemplate</t>
+  </si>
+  <si>
+    <t>Sophie Default Email</t>
+  </si>
+  <si>
+    <t>tabDirectEmail</t>
+  </si>
+  <si>
+    <t>ddnDMTemplate</t>
+  </si>
+  <si>
+    <t>Sophie Default DirectMail</t>
+  </si>
+  <si>
+    <t>Below test cases are added to validate the CSV after the engine run</t>
+  </si>
+  <si>
+    <t>DirectMail</t>
+  </si>
+  <si>
+    <t>offer_name</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Below cases have API integrations</t>
+  </si>
+  <si>
+    <t>Sophie_API_integration</t>
+  </si>
+  <si>
+    <t>click new event button</t>
+  </si>
+  <si>
+    <t>btnAddEvent</t>
+  </si>
+  <si>
+    <t>txtEventName</t>
+  </si>
+  <si>
+    <t>Enter new event</t>
+  </si>
+  <si>
+    <t>regression_event</t>
+  </si>
+  <si>
+    <t>keyPressEnter</t>
+  </si>
+  <si>
+    <t>checkTriggerEvent</t>
+  </si>
+  <si>
+    <t>press enter</t>
+  </si>
+  <si>
+    <t>check trigger event</t>
+  </si>
+  <si>
+    <t>OfferWithEvent</t>
+  </si>
+  <si>
+    <t>byPassArbitrationSelection</t>
+  </si>
+  <si>
+    <t>select the bypass arbitration for the new offer</t>
+  </si>
+  <si>
+    <t>tabSMS</t>
+  </si>
+  <si>
+    <t>ddnSMSTemplate</t>
+  </si>
+  <si>
+    <t>Sophie Default SMS</t>
+  </si>
+  <si>
+    <t>Argument1</t>
+  </si>
+  <si>
+    <t>TS1_Regr_01</t>
+  </si>
+  <si>
+    <t>TS1_Regr_02</t>
+  </si>
+  <si>
+    <t>Clear the IH</t>
+  </si>
+  <si>
+    <t>Enure no checked out versions</t>
+  </si>
+  <si>
+    <t>click next</t>
+  </si>
+  <si>
+    <t>Cases_CSVvalidations</t>
+  </si>
+  <si>
+    <t>TS2_Regr_01</t>
+  </si>
+  <si>
+    <t>Cases_APIIntegration</t>
+  </si>
+  <si>
+    <t>Cases by integrating the API calls</t>
+  </si>
+  <si>
+    <t>OfferRegr4820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate the run status </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Call the eventAPI</t>
+  </si>
+  <si>
+    <t>RealtimeEventGetAPi</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>lnkLaunchWebInterface</t>
-  </si>
-  <si>
-    <t>lnkEngineDesignerPortal</t>
-  </si>
-  <si>
-    <t>TS_15</t>
-  </si>
-  <si>
-    <t>TS_16</t>
-  </si>
-  <si>
-    <t>lnkDdefineBrain</t>
-  </si>
-  <si>
-    <t>btnCreatenewVersion</t>
-  </si>
-  <si>
-    <t>txtShortDesc</t>
-  </si>
-  <si>
-    <t>ActionKeyword</t>
-  </si>
-  <si>
-    <t>openURL</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>enterText</t>
-  </si>
-  <si>
-    <t>txtVersionNotes</t>
-  </si>
-  <si>
-    <t>imgBtnNext</t>
-  </si>
-  <si>
-    <t>imgGeneratebtn</t>
-  </si>
-  <si>
-    <t>Click on Submit notes</t>
-  </si>
-  <si>
-    <t>btnSubmitVersionNotes</t>
-  </si>
-  <si>
-    <t>btnRunEngine</t>
-  </si>
-  <si>
-    <t>TS_17</t>
-  </si>
-  <si>
-    <t>TS_18</t>
-  </si>
-  <si>
-    <t>TS_19</t>
-  </si>
-  <si>
-    <t>Putting some wait</t>
-  </si>
-  <si>
-    <t>sleepTime</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>gettingHandle</t>
-  </si>
-  <si>
-    <t>TS_20</t>
-  </si>
-  <si>
-    <t>TS_21</t>
-  </si>
-  <si>
-    <t>TS_22</t>
-  </si>
-  <si>
-    <t>3000</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Created as part of automation</t>
-  </si>
-  <si>
-    <t>Click on generate engine</t>
-  </si>
-  <si>
-    <t>Verify the status pause</t>
-  </si>
-  <si>
-    <t>eleEngineStatus</t>
-  </si>
-  <si>
-    <t>elementPropertyCheck</t>
-  </si>
-  <si>
-    <t>Paused</t>
-  </si>
-  <si>
-    <t>Click the link Click to Check data</t>
-  </si>
-  <si>
-    <t>lnkClickToCheckData</t>
-  </si>
-  <si>
-    <t>Click the link Click to download the csv</t>
-  </si>
-  <si>
-    <t>lnkDownloadCSV</t>
-  </si>
-  <si>
-    <t>Validate the downloaded CSV</t>
-  </si>
-  <si>
-    <t>ValidateBatchDecisionOutputCSV</t>
-  </si>
-  <si>
-    <t>TestCase</t>
-  </si>
-  <si>
-    <t>ColumnToBeValidated</t>
-  </si>
-  <si>
-    <t>ValueToBeChecked</t>
-  </si>
-  <si>
-    <t>Expected</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>channel_name</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resume the run </t>
-  </si>
-  <si>
-    <t>Closing the browser</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
-  </si>
-  <si>
-    <t>TS_10</t>
-  </si>
-  <si>
-    <t>TS_23</t>
-  </si>
-  <si>
-    <t>TS_24</t>
-  </si>
-  <si>
-    <t>TS_25</t>
-  </si>
-  <si>
-    <t>TS_26</t>
-  </si>
-  <si>
-    <t>TS_27</t>
-  </si>
-  <si>
-    <t>TS_28</t>
-  </si>
-  <si>
-    <t>TS_29</t>
-  </si>
-  <si>
-    <t>TS_30</t>
-  </si>
-  <si>
-    <t>TS_31</t>
-  </si>
-  <si>
-    <t>TS_32</t>
-  </si>
-  <si>
-    <t>TS_33</t>
-  </si>
-  <si>
-    <t>Ensure the CSV version created without Email, and with IB has ib , but no Email</t>
-  </si>
-  <si>
-    <t>Unselect DM</t>
-  </si>
-  <si>
-    <t>Select Email</t>
-  </si>
-  <si>
-    <t>Click Email channel</t>
-  </si>
-  <si>
-    <t>Click Next</t>
-  </si>
-  <si>
-    <t>Click on New offer</t>
-  </si>
-  <si>
-    <t>chkDirectMail</t>
-  </si>
-  <si>
-    <t>chkEmail</t>
-  </si>
-  <si>
-    <t>btnEmailChannel</t>
-  </si>
-  <si>
-    <t>btnNewOffer</t>
-  </si>
-  <si>
-    <t>enter the name</t>
-  </si>
-  <si>
-    <t>txtOfferLabel</t>
-  </si>
-  <si>
-    <t>txtOfferName</t>
-  </si>
-  <si>
-    <t>Entert the start date</t>
-  </si>
-  <si>
-    <t>Entert the End date</t>
-  </si>
-  <si>
-    <t>txtOfferStartDate</t>
-  </si>
-  <si>
-    <t>txtOfferEndDate</t>
-  </si>
-  <si>
-    <t>Verify Applicable channels</t>
-  </si>
-  <si>
-    <t>divApplicableChannels</t>
-  </si>
-  <si>
-    <t>verifyApplicableSubchannels</t>
-  </si>
-  <si>
-    <t>Click next&gt;&gt;</t>
-  </si>
-  <si>
-    <t>SelectListItem</t>
-  </si>
-  <si>
-    <t>Click on next</t>
-  </si>
-  <si>
-    <t>btnNext</t>
-  </si>
-  <si>
-    <t>TS_34</t>
-  </si>
-  <si>
-    <t>TS_35</t>
-  </si>
-  <si>
-    <t>btnResumeRun</t>
-  </si>
-  <si>
-    <t>ToggleButtonClick</t>
-  </si>
-  <si>
-    <t>Choose sms tab</t>
-  </si>
-  <si>
-    <t>Select sms template</t>
-  </si>
-  <si>
-    <t>Choose oBCC  tab</t>
-  </si>
-  <si>
-    <t>TS_36</t>
-  </si>
-  <si>
-    <t>TS_38</t>
-  </si>
-  <si>
-    <t>Sophie_Auto_328</t>
-  </si>
-  <si>
-    <t>TestCaseID should be matching with the TestCaseID in the 'RegressionCases'</t>
-  </si>
-  <si>
-    <t>Sophie_NoEmail_ButIB_329</t>
-  </si>
-  <si>
-    <t>Click submit</t>
-  </si>
-  <si>
-    <t>Choose obcc template</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>wait to download</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>chkSMS</t>
-  </si>
-  <si>
-    <t>Select SMS</t>
-  </si>
-  <si>
-    <t>Rollback to the baseline version</t>
-  </si>
-  <si>
-    <t>rollBackToBaselineVersion</t>
-  </si>
-  <si>
-    <t>7.143.113..NA.01-01-01</t>
-  </si>
-  <si>
-    <t>Rollback to baseline version</t>
-  </si>
-  <si>
-    <t>wait time</t>
-  </si>
-  <si>
-    <t>OfferRegr4819</t>
-  </si>
-  <si>
-    <t>Deselect Microsite</t>
-  </si>
-  <si>
-    <t>chkMicrosite</t>
-  </si>
-  <si>
-    <t>checkboxSelect</t>
-  </si>
-  <si>
-    <t>checkboxUncheck</t>
-  </si>
-  <si>
-    <t>uncheck microsite</t>
-  </si>
-  <si>
-    <t>Email,DirectMail</t>
-  </si>
-  <si>
-    <t>tabEmail</t>
-  </si>
-  <si>
-    <t>ddnEmailTemplate</t>
-  </si>
-  <si>
-    <t>Sophie Default Email</t>
-  </si>
-  <si>
-    <t>tabDirectEmail</t>
-  </si>
-  <si>
-    <t>ddnDMTemplate</t>
-  </si>
-  <si>
-    <t>Sophie Default DirectMail</t>
-  </si>
-  <si>
-    <t>Below test cases are added to validate the CSV after the engine run</t>
-  </si>
-  <si>
-    <t>DirectMail</t>
-  </si>
-  <si>
-    <t>offer_name</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Below cases have API integrations</t>
-  </si>
-  <si>
-    <t>Sophie_API_integration</t>
-  </si>
-  <si>
-    <t>click new event button</t>
-  </si>
-  <si>
-    <t>btnAddEvent</t>
-  </si>
-  <si>
-    <t>txtEventName</t>
-  </si>
-  <si>
-    <t>Enter new event</t>
-  </si>
-  <si>
-    <t>regression_event</t>
-  </si>
-  <si>
-    <t>keyPressEnter</t>
-  </si>
-  <si>
-    <t>checkTriggerEvent</t>
-  </si>
-  <si>
-    <t>press enter</t>
-  </si>
-  <si>
-    <t>check trigger event</t>
-  </si>
-  <si>
-    <t>OfferWithEvent</t>
-  </si>
-  <si>
-    <t>byPassArbitrationSelection</t>
-  </si>
-  <si>
-    <t>select the bypass arbitration for the new offer</t>
-  </si>
-  <si>
-    <t>tabSMS</t>
-  </si>
-  <si>
-    <t>ddnSMSTemplate</t>
-  </si>
-  <si>
-    <t>Sophie Default SMS</t>
-  </si>
-  <si>
-    <t>Argument1</t>
-  </si>
-  <si>
-    <t>TS1_Regr_01</t>
-  </si>
-  <si>
-    <t>TS1_Regr_02</t>
-  </si>
-  <si>
-    <t>Clear the IH</t>
-  </si>
-  <si>
-    <t>Enure no checked out versions</t>
-  </si>
-  <si>
-    <t>click next</t>
-  </si>
-  <si>
-    <t>Cases_CSVvalidations</t>
-  </si>
-  <si>
-    <t>TS2_Regr_01</t>
-  </si>
-  <si>
-    <t>Cases_APIIntegration</t>
-  </si>
-  <si>
-    <t>Cases by integrating the API calls</t>
-  </si>
-  <si>
-    <t>OfferRegr4820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate the run status </t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Call the eventAPI</t>
-  </si>
-  <si>
-    <t>RealtimeEventGetAPi</t>
-  </si>
-  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Click on technical admin</t>
+  </si>
+  <si>
+    <t>Clear IH</t>
+  </si>
+  <si>
+    <t>Reset engine status</t>
+  </si>
+  <si>
+    <t>lnkTechAdmin</t>
+  </si>
+  <si>
+    <t>btnClearIH</t>
+  </si>
+  <si>
+    <t>btnResetEngStat</t>
   </si>
 </sst>
 </file>
@@ -1195,22 +1201,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1230,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A5" sqref="A5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,7 +1254,7 @@
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="14.25">
       <c r="A2" s="17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1267,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>1</v>
@@ -1281,46 +1287,46 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -1335,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EA4E71-0B53-4881-A15A-C454293CD34C}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1367,7 +1373,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1401,13 +1407,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -1415,7 +1421,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -1427,7 +1433,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1435,19 +1441,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>31</v>
@@ -1457,29 +1463,29 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -1488,10 +1494,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1499,29 +1505,29 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -1530,10 +1536,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1541,29 +1547,29 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -1575,7 +1581,7 @@
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1583,41 +1589,41 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1625,63 +1631,63 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7">
         <v>5000</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>27</v>
@@ -1700,10 +1706,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1711,7 +1717,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>28</v>
@@ -1720,20 +1726,20 @@
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>29</v>
@@ -1742,32 +1748,32 @@
         <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F22" s="7">
         <v>3000</v>
@@ -1797,19 +1803,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1857,19 +1863,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F27" s="7">
         <v>3000</v>
@@ -1899,19 +1905,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1919,19 +1925,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F29" s="7">
         <v>3000</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F31" s="7">
         <v>3000</v>
@@ -1983,19 +1989,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2023,19 +2029,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F34" s="7">
         <v>20000</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2065,19 +2071,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F37" s="7">
         <v>10000</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="3">
         <v>10000</v>
@@ -2149,19 +2155,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -2169,19 +2175,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -2189,19 +2195,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F42" s="3">
         <v>30000</v>
@@ -2211,19 +2217,19 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>6</v>
@@ -2243,7 +2249,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2271,19 +2277,19 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F46" s="9">
         <v>5000</v>
@@ -2293,7 +2299,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -2302,10 +2308,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2313,19 +2319,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F48" s="9">
         <v>5000</v>
@@ -2335,7 +2341,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>14</v>
@@ -2344,10 +2350,10 @@
         <v>18</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -2355,19 +2361,19 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F50" s="9">
         <v>5000</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>16</v>
@@ -2389,7 +2395,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -2397,19 +2403,19 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F52" s="9">
         <v>3000</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F54" s="7">
         <v>3000</v>
@@ -2461,29 +2467,29 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>27</v>
@@ -2492,10 +2498,10 @@
         <v>21</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -2503,7 +2509,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>28</v>
@@ -2512,20 +2518,20 @@
         <v>22</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>29</v>
@@ -2534,32 +2540,32 @@
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F60" s="7">
         <v>3000</v>
@@ -2589,19 +2595,19 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -2609,19 +2615,19 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
@@ -2669,19 +2675,19 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F66" s="7">
         <v>3000</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
@@ -2731,19 +2737,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -2751,63 +2757,63 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" s="12">
         <v>43525</v>
@@ -2817,19 +2823,19 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" s="12">
         <v>45743</v>
@@ -2839,41 +2845,39 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G73" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
@@ -2881,249 +2885,249 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="3"/>
       <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F77" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="9"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G78" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
       <c r="H78" s="9"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="F79" s="9">
+        <v>5000</v>
+      </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80" s="9">
-        <v>5000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="F81" s="13">
+        <v>10000</v>
+      </c>
+      <c r="G81" s="13"/>
       <c r="H81" s="9"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="9"/>
+        <v>182</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+        <v>182</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="F84" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="7">
-        <v>20000</v>
-      </c>
-      <c r="G85" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3131,103 +3135,103 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F87" s="7">
+        <v>10000</v>
+      </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" s="7">
-        <v>10000</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F89" s="3">
+        <v>10000</v>
+      </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F90" s="3">
-        <v>10000</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3235,65 +3239,45 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F92" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F92" s="3">
+        <v>30000</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F93" s="3">
-        <v>30000</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3308,10 +3292,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8C304-D672-42E3-8009-BB544F384D0E}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3327,7 +3311,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3371,13 +3355,13 @@
         <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>3</v>
@@ -3385,7 +3369,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -3397,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3405,19 +3389,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>31</v>
@@ -3427,29 +3411,29 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -3458,10 +3442,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3469,29 +3453,29 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
@@ -3500,10 +3484,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3511,29 +3495,29 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>16</v>
@@ -3545,7 +3529,7 @@
         <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3553,191 +3537,187 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5000</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3745,101 +3725,105 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="7">
-        <v>3000</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="F25" s="7">
+        <v>3000</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -3847,41 +3831,39 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -3889,587 +3871,649 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="7">
-        <v>3000</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+        <v>171</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="F34" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="7"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="12">
-        <v>43526</v>
-      </c>
-      <c r="G36" s="12"/>
+        <v>43</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="12">
-        <v>45743</v>
-      </c>
-      <c r="G37" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="F39" s="12">
+        <v>43526</v>
+      </c>
+      <c r="G39" s="12"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G40" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="F40" s="12">
+        <v>45743</v>
+      </c>
+      <c r="G40" s="12"/>
       <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="3"/>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G44" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>174</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+        <v>187</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="7">
+        <v>20000</v>
+      </c>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="7">
-        <v>20000</v>
-      </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="3">
+        <v>123458</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="3">
-        <v>30000</v>
-      </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="3">
-        <v>123462</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4528,7 +4572,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="27"/>
       <c r="H3" s="28"/>
@@ -4538,106 +4582,106 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4668,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4676,7 +4720,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
